--- a/dados/bro e_commerce.xlsx
+++ b/dados/bro e_commerce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -571,17 +605,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -596,17 +636,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -621,17 +667,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -646,17 +702,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=6140de24-454d-4a9d-8907-e564b0c530ba</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
         </is>
       </c>
     </row>
@@ -671,17 +733,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=fad20df6-76e1-41c9-a4f9-b1601be10468</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c2c448d-8c51-4ff2-85b5-2cb95c8d93e0</t>
         </is>
       </c>
     </row>
@@ -696,17 +768,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=fad20df6-76e1-41c9-a4f9-b1601be10468</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c2c448d-8c51-4ff2-85b5-2cb95c8d93e0</t>
         </is>
       </c>
     </row>
@@ -721,17 +799,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=3bec0d87-43c0-4b86-82ff-40cbe2488eda</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=49f7a30b-efcc-44e0-9472-798dea954d41</t>
         </is>
       </c>
     </row>
@@ -746,17 +834,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2d9d735-4104-44bd-8e1a-09ca9a25c50e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
         </is>
       </c>
     </row>
@@ -771,17 +865,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2d9d735-4104-44bd-8e1a-09ca9a25c50e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
         </is>
       </c>
     </row>
@@ -796,17 +900,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2d9d735-4104-44bd-8e1a-09ca9a25c50e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
         </is>
       </c>
     </row>
@@ -821,17 +931,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2d9d735-4104-44bd-8e1a-09ca9a25c50e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
         </is>
       </c>
     </row>
@@ -846,17 +962,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df3af1022-8954-42d9-b08c-725578e356f1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f374027-3ced-42a1-ac0a-34093a3579dc</t>
         </is>
       </c>
     </row>
@@ -871,17 +997,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -896,17 +1032,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -921,17 +1067,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -946,17 +1102,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -971,17 +1137,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -996,17 +1172,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1203,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D76e6602f-4c8b-4fb0-968f-940c0eef7c79</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1238,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd377cd8f-b438-4394-9e43-75aedc2caf5d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1269,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd377cd8f-b438-4394-9e43-75aedc2caf5d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1304,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd377cd8f-b438-4394-9e43-75aedc2caf5d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1335,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd377cd8f-b438-4394-9e43-75aedc2caf5d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1366,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd377cd8f-b438-4394-9e43-75aedc2caf5d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1401,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9ce865f-4747-4abb-b876-d0481245b57b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0cfb064-e3cb-4a37-ab17-66daedabbedb</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1432,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9ce865f-4747-4abb-b876-d0481245b57b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0cfb064-e3cb-4a37-ab17-66daedabbedb</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1467,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df31dba89-dab6-47c1-8424-0ec779a38f7c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21eee97-221e-49db-be58-a31c336dd0cb</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1498,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df31dba89-dab6-47c1-8424-0ec779a38f7c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21eee97-221e-49db-be58-a31c336dd0cb</t>
         </is>
       </c>
     </row>

--- a/dados/bro e_commerce.xlsx
+++ b/dados/bro e_commerce.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>92.66</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>117.52</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -538,13 +538,13 @@
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>92.66</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -569,13 +569,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>99.44</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -600,13 +600,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>99.44</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -631,13 +631,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>99.44</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -662,14 +662,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>466.39</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -687,7 +687,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -697,13 +697,13 @@
           <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>92.66</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c74ca9b-aa26-49f3-a691-3e25d15a5acc</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
         </is>
       </c>
     </row>
@@ -728,14 +728,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>603.54</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -753,7 +753,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c2c448d-8c51-4ff2-85b5-2cb95c8d93e0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a94e5b54-f2b0-447c-826b-6714755048ad</t>
         </is>
       </c>
     </row>
@@ -763,13 +763,13 @@
           <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>92.66</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1c2c448d-8c51-4ff2-85b5-2cb95c8d93e0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=a94e5b54-f2b0-447c-826b-6714755048ad</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>667.79</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -819,25 +819,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=49f7a30b-efcc-44e0-9472-798dea954d41</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=2cf67a06-2317-472b-a176-bddc1164f748</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>573.36</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -845,34 +849,30 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2cf67a06-2317-472b-a176-bddc1164f748</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>710.1900000000001</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -880,30 +880,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>38</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>710.1900000000001</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -911,28 +915,28 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>814.42</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>38</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -942,28 +946,28 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd64516dd-f6db-4d45-96fa-a7886da1870c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>890.37</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>814.42</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -982,27 +986,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f374027-3ced-42a1-ac0a-34093a3579dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>890.37</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,7 +1021,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d8ff40c-e5de-4505-bf8f-d26db9b20008</t>
         </is>
       </c>
     </row>
@@ -1027,14 +1031,14 @@
           <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>568.15</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1052,7 +1056,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1066,14 @@
           <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>551.1900000000001</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1087,23 +1091,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>457.29</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>466.39</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1122,23 +1126,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>438.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1157,25 +1161,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>438.9</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>457.29</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1188,7 +1196,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
         </is>
       </c>
     </row>
@@ -1198,14 +1206,14 @@
           <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>498.19</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1223,7 +1231,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dddbdcd24-7381-4509-9040-77d1a0737f8e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
         </is>
       </c>
     </row>
@@ -1233,13 +1241,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Resistente A Agua</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>88.52</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1254,7 +1262,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
         </is>
       </c>
     </row>
@@ -1264,14 +1272,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Bateria</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>445.19</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1289,7 +1297,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
         </is>
       </c>
     </row>
@@ -1299,13 +1307,13 @@
           <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>78</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1320,7 +1328,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
         </is>
       </c>
     </row>
@@ -1330,13 +1338,13 @@
           <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>99</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1351,7 +1359,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
         </is>
       </c>
     </row>
@@ -1361,14 +1369,14 @@
           <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>519.39</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1386,7 +1394,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37c33094-d52f-46d2-8404-d5592c020e8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
         </is>
       </c>
     </row>
@@ -1396,13 +1404,13 @@
           <t>Voltimetro Jfa Sequenciador Mede Bateria Proteção Alta Baixa</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>58.76</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1417,7 +1425,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0cfb064-e3cb-4a37-ab17-66daedabbedb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6def8218-0e6a-4d76-8667-302c1d1e5fc1</t>
         </is>
       </c>
     </row>
@@ -1427,14 +1435,14 @@
           <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>731.39</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1452,7 +1460,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0cfb064-e3cb-4a37-ab17-66daedabbedb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6def8218-0e6a-4d76-8667-302c1d1e5fc1</t>
         </is>
       </c>
     </row>
@@ -1462,15 +1470,19 @@
           <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>412.9</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1483,7 +1495,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21eee97-221e-49db-be58-a31c336dd0cb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db95a3fbf-501c-4e81-94aa-3634eb587f83</t>
         </is>
       </c>
     </row>
@@ -1493,14 +1505,14 @@
           <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>847.99</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1518,7 +1530,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21eee97-221e-49db-be58-a31c336dd0cb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db95a3fbf-501c-4e81-94aa-3634eb587f83</t>
         </is>
       </c>
     </row>

--- a/dados/bro e_commerce.xlsx
+++ b/dados/bro e_commerce.xlsx
@@ -478,13 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.66</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>90.8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -509,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>117.52</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -528,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -540,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92.66</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>90.8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -559,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -571,13 +583,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>99.44</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -590,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -602,13 +618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>99.44</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -621,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -633,13 +653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>99.44</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -652,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -687,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -699,13 +723,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>92.66</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -718,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=e45d7d7a-db11-456f-8bbf-292c8aa1e153</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -753,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a94e5b54-f2b0-447c-826b-6714755048ad</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
         </is>
       </c>
     </row>
@@ -765,13 +793,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>92.66</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -784,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=a94e5b54-f2b0-447c-826b-6714755048ad</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7876e32-7b43-4ad4-b5c2-2fece1dd8cb4</t>
         </is>
       </c>
     </row>
@@ -819,29 +851,25 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=2cf67a06-2317-472b-a176-bddc1164f748</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff2a0a-3112-4708-87be-2afe200a5f90</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>61.02</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -849,30 +877,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2cf67a06-2317-472b-a176-bddc1164f748</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20ff2a0a-3112-4708-87be-2afe200a5f90</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>573.36</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -880,12 +912,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
         </is>
       </c>
     </row>
@@ -920,7 +952,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
         </is>
       </c>
     </row>
@@ -936,7 +968,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>37.62</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -951,23 +983,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>814.42</v>
+        <v>457.29</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -986,23 +1018,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D251c8d0d-e247-4c2b-b899-5076151067f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>890.37</v>
+        <v>814.42</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1021,23 +1053,23 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d8ff40c-e5de-4505-bf8f-d26db9b20008</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>568.15</v>
+        <v>890.37</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1056,23 +1088,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>551.1900000000001</v>
+        <v>568.15</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1091,23 +1123,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>466.39</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1126,23 +1158,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>438.9</v>
+        <v>466.39</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1161,23 +1193,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>457.29</v>
+        <v>438.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1196,7 +1228,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D34f4a52d-58f1-450c-849b-9a1d7469f486</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1263,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04303ff0-fd14-4163-88e6-83a1474ee7dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128d9a56-76c1-4b79-b4dd-8f8a2e194c21</t>
         </is>
       </c>
     </row>
@@ -1243,13 +1275,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>88.52</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1262,7 +1298,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128d9a56-76c1-4b79-b4dd-8f8a2e194c21</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1333,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128d9a56-76c1-4b79-b4dd-8f8a2e194c21</t>
         </is>
       </c>
     </row>
@@ -1309,13 +1345,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>78</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1328,7 +1368,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df54409eb-e4cf-4f08-9e51-8fb37299d2d8</t>
         </is>
       </c>
     </row>
@@ -1340,13 +1380,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>99</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1359,7 +1403,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df54409eb-e4cf-4f08-9e51-8fb37299d2d8</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1438,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1556dad8-c824-408f-87d6-b423f411cc22</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df54409eb-e4cf-4f08-9e51-8fb37299d2d8</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1469,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6def8218-0e6a-4d76-8667-302c1d1e5fc1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8aab5996-1d39-46e1-a03b-04a6d630bbaf</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1504,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6def8218-0e6a-4d76-8667-302c1d1e5fc1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc24a8026-aa41-4675-9f54-1fd9be67b385</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1539,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db95a3fbf-501c-4e81-94aa-3634eb587f83</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc24a8026-aa41-4675-9f54-1fd9be67b385</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1574,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db95a3fbf-501c-4e81-94aa-3634eb587f83</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc24a8026-aa41-4675-9f54-1fd9be67b385</t>
         </is>
       </c>
     </row>

--- a/dados/bro e_commerce.xlsx
+++ b/dados/bro e_commerce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1108 +483,1473 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>90.8</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>117.52</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E4" t="n">
+        <v>92.66</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>99.44</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>99.44</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>99.44</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>466.39</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>92.66</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>603.54</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=86ee4c65-d914-4a0e-ab23-d1b64ee7104c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=4fcc7915-ff01-4d0f-9c31-f83597667086</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>92.66</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7876e32-7b43-4ad4-b5c2-2fece1dd8cb4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=4fcc7915-ff01-4d0f-9c31-f83597667086</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>667.79</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff2a0a-3112-4708-87be-2afe200a5f90</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=94763929-af13-4aae-990b-1a3c25052fd0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>61.02</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20ff2a0a-3112-4708-87be-2afe200a5f90</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb2e0830-3958-468f-b654-987a383fbe0e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>573.36</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>710.1900000000001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb2e0830-3958-468f-b654-987a383fbe0e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>710.1900000000001</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb2e0830-3958-468f-b654-987a383fbe0e</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>37.62</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>573.36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>457.29</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Voltimetro Jfa Sequenciador Mede Bateria Proteção Alta Baixa</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>814.42</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc3004b2-42ed-4163-9bd5-227dd7505758</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>890.37</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>438.9</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>568.15</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>890.37</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>551.1900000000001</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>568.15</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>466.39</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>498.19</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df4a9ef26-b7d6-4956-b05b-e02f0d2ce8a5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>438.9</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>551.1900000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D34f4a52d-58f1-450c-849b-9a1d7469f486</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>498.19</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>466.39</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128d9a56-76c1-4b79-b4dd-8f8a2e194c21</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Acqua Resistente A Agua</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>88.52</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128d9a56-76c1-4b79-b4dd-8f8a2e194c21</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8a765303-32ee-4842-8641-79c7a5d3f1c4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Bateria</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>445.19</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D128d9a56-76c1-4b79-b4dd-8f8a2e194c21</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>78</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 40a Storm</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>423.99</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df54409eb-e4cf-4f08-9e51-8fb37299d2d8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2778593834-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>99</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>78</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df54409eb-e4cf-4f08-9e51-8fb37299d2d8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>519.39</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Preto C/ Verde Longa Distancia Universal</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>99</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df54409eb-e4cf-4f08-9e51-8fb37299d2d8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Voltimetro Jfa Sequenciador Mede Bateria Proteção Alta Baixa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>58.76</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>519.39</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8aab5996-1d39-46e1-a03b-04a6d630bbaf</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Carregador De Bateria Jfa Caixa Bob 200a</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="E31" t="n">
         <v>731.39</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc24a8026-aa41-4675-9f54-1fd9be67b385</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6009508c-f2fe-41b7-a68a-8197fd6f1cd8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>412.9</v>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>455.79</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc24a8026-aa41-4675-9f54-1fd9be67b385</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2613428454-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6009508c-f2fe-41b7-a68a-8197fd6f1cd8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>412.9</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D71e9f440-493b-42e3-a442-bf5a6e3a1335</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bro e_commerce</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="E34" t="n">
         <v>847.99</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc24a8026-aa41-4675-9f54-1fd9be67b385</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D71e9f440-493b-42e3-a442-bf5a6e3a1335</t>
         </is>
       </c>
     </row>

--- a/dados/bro e_commerce.xlsx
+++ b/dados/bro e_commerce.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>117.52</v>
+        <v>99.44</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99.44</v>
+        <v>92.66</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99.44</v>
+        <v>466.39</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -741,19 +741,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,16 +763,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>466.39</v>
+        <v>99.44</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -786,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,16 +808,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>92.66</v>
+        <v>117.52</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -836,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f4a9365-9a3b-48f0-9a12-9eb29980bb48</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -881,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=4fcc7915-ff01-4d0f-9c31-f83597667086</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=b0442374-6214-4b2f-8339-d772a050a850</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,22 +898,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>92.66</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>37.62</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -921,19 +917,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=4fcc7915-ff01-4d0f-9c31-f83597667086</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a946e69-aba7-4056-894b-6eb4a13b95b6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,16 +939,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>667.79</v>
+        <v>92.66</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -966,19 +962,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=94763929-af13-4aae-990b-1a3c25052fd0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=b0442374-6214-4b2f-8339-d772a050a850</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1012,14 +1008,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb2e0830-3958-468f-b654-987a383fbe0e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a946e69-aba7-4056-894b-6eb4a13b95b6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,7 +1025,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1038,7 +1034,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>710.1900000000001</v>
+        <v>667.79</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1052,19 +1048,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb2e0830-3958-468f-b654-987a383fbe0e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=af702e1c-c783-49f9-b55b-846185131cf3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,18 +1070,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.62</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+        <v>710.1900000000001</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddb2e0830-3958-468f-b654-987a383fbe0e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a946e69-aba7-4056-894b-6eb4a13b95b6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1124,11 +1124,11 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>573.36</v>
+        <v>603.54</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1143,14 +1143,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1319,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcd6371d4-6d5e-4065-8ea8-6fe6e475287c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,16 +1336,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>568.15</v>
+        <v>498.19</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1381,16 +1381,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>498.19</v>
+        <v>568.15</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1409,14 +1409,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2a68adac-e8ca-4b51-a00b-f93289c07225</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1426,16 +1426,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>551.1900000000001</v>
+        <v>466.39</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1454,14 +1454,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2a68adac-e8ca-4b51-a00b-f93289c07225</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,16 +1471,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>466.39</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daacbd7ad-2261-4325-9bc9-0a42ac8a72c7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2a68adac-e8ca-4b51-a00b-f93289c07225</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1544,14 +1544,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8a765303-32ee-4842-8641-79c7a5d3f1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8cac07d-040d-40d3-b795-aa7657f74f06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1589,14 +1589,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8cac07d-040d-40d3-b795-aa7657f74f06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2778593834-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2778593834-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8cac07d-040d-40d3-b795-aa7657f74f06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1679,14 +1679,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c2f11a1-05af-4e7e-9d0e-8efe13238923</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1724,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c2f11a1-05af-4e7e-9d0e-8efe13238923</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1769,14 +1769,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61467f71-4b92-4af9-959b-82b6c1962ae9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c2f11a1-05af-4e7e-9d0e-8efe13238923</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1814,14 +1814,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6009508c-f2fe-41b7-a68a-8197fd6f1cd8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb734553-6b04-47f8-bd38-19cdabdc6f7f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1859,14 +1859,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2613428454-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6009508c-f2fe-41b7-a68a-8197fd6f1cd8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2613428454-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb734553-6b04-47f8-bd38-19cdabdc6f7f</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1904,14 +1904,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D71e9f440-493b-42e3-a442-bf5a6e3a1335</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da0d9ab57-8f00-43b5-a5d2-a4dd2a714bbd</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D71e9f440-493b-42e3-a442-bf5a6e3a1335</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da0d9ab57-8f00-43b5-a5d2-a4dd2a714bbd</t>
         </is>
       </c>
     </row>

--- a/dados/bro e_commerce.xlsx
+++ b/dados/bro e_commerce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90.8</v>
+        <v>603.54</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#searchVariation=MLB27970249&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#wid=MLB4754282998&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.44</v>
+        <v>117.52</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#searchVariation=MLB34210379&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#wid=MLB3619051941&amp;sid=search&amp;searchVariation=MLB28557249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#searchVariation=MLB32381086&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:164723606#wid=MLB3589875365&amp;sid=search&amp;searchVariation=MLB27970249&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#searchVariation=MLB28722231&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:164723606#wid=MLB4680977216&amp;sid=search&amp;searchVariation=MLB34210379&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>92.66</v>
+        <v>99.44</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#searchVariation=MLB32364344&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#wid=MLB3619143753&amp;sid=search&amp;searchVariation=MLB28687615&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,22 +718,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Voltimetro Jfa Sequenciador Mede Bateria Proteção Alta Baixa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>58.76</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -746,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#searchVariation=MLB21320712&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De488955f-5530-43a4-893d-a0dc0208f89d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,16 +759,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99.44</v>
+        <v>92.66</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -791,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:164723606#searchVariation=MLB28687615&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:164723606#wid=MLB3619139075&amp;sid=search&amp;searchVariation=MLB32364344&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,22 +804,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>117.52</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>61.02</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -831,19 +823,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:164723606#searchVariation=MLB28557249&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=f3e4b569-3e3e-4fea-bc63-556f632e7411</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De488955f-5530-43a4-893d-a0dc0208f89d</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,16 +845,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>603.54</v>
+        <v>99.44</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -881,14 +873,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:164723606#searchVariation=MLB23998473&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=b0442374-6214-4b2f-8339-d772a050a850</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:164723606#wid=MLB3619092299&amp;sid=search&amp;searchVariation=MLB28722231&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=bca350bd-c7c2-4026-998c-92bf2680b1ba</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,18 +890,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.62</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>466.39</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a946e69-aba7-4056-894b-6eb4a13b95b6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:164723606#wid=MLB4574551872&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=af047d65-c638-4b77-ab47-666b895397b1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +935,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distancia Jfa K600 Preto Laranja</t>
+          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>92.66</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -967,14 +963,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-preto-laranja/p/MLB31403178?pdp_filters=seller_id:164723606#searchVariation=MLB31403178&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=b0442374-6214-4b2f-8339-d772a050a850</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De488955f-5530-43a4-893d-a0dc0208f89d</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,18 +980,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Supressor Eletromagnético Rca Som Amp</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>92.66</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1003,19 +1003,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623674732-filtro-anti-ruido-jfa-supressor-eletromagnetico-rca-som-amp-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a946e69-aba7-4056-894b-6eb4a13b95b6</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:164723606#wid=MLB3619115957&amp;sid=search&amp;searchVariation=MLB32381086&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=af047d65-c638-4b77-ab47-666b895397b1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,16 +1025,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Remoto Longa Distancia Jfa K600 Laranja/Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>667.79</v>
+        <v>92.66</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=af702e1c-c783-49f9-b55b-846185131cf3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-laranjapreto/p/MLB31403178?pdp_filters=seller_id:164723606#wid=MLB3619103339&amp;sid=search&amp;searchVariation=MLB31403178&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=a2be86e3-1373-4852-be56-f43dcc6d3d03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,16 +1070,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Storm Bivolt Voltímetro Digital</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>710.1900000000001</v>
+        <v>890.37</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1098,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199596546-fonte-automotiva-jfa-120a-storm-bivolt-voltimetro-digital-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4a946e69-aba7-4056-894b-6eb4a13b95b6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De488955f-5530-43a4-893d-a0dc0208f89d</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,20 +1115,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>603.54</v>
+        <v>667.79</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1138,19 +1138,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:164723606#wid=MLB3644613963&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=a2be86e3-1373-4852-be56-f43dcc6d3d03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Voltimetro Jfa Sequenciador Mede Bateria Proteção Alta Baixa</t>
+          <t>Conversor Fio Para Rca Jfa Remoto Cd Dvd Radio Som Original</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>58.76</v>
+        <v>38</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
@@ -1184,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2623758194-voltimetro-jfa-sequenciador-mede-bateria-proteco-alta-baixa-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2623674190-conversor-fio-para-rca-jfa-remoto-cd-dvd-radio-som-original-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De488955f-5530-43a4-893d-a0dc0208f89d</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1201,16 +1201,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>814.42</v>
+        <v>438.9</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1229,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daeacb91b-7f4d-4c5d-8976-a6e4eb9eda5e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,16 +1246,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>438.9</v>
+        <v>466.39</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574564000-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daeacb91b-7f4d-4c5d-8976-a6e4eb9eda5e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,20 +1291,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Bateria</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>890.37</v>
+        <v>445.19</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1314,19 +1314,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199610044-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De488955f-5530-43a4-893d-a0dc0208f89d</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1336,16 +1336,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>498.19</v>
+        <v>814.42</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bc2a34e-8e15-4fa7-b967-55676c634a6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438349830-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daeacb91b-7f4d-4c5d-8976-a6e4eb9eda5e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1381,16 +1381,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
+          <t>Fonte Automotiva Jfa 60a Slim Storm Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>568.15</v>
+        <v>498.19</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1409,14 +1409,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2a68adac-e8ca-4b51-a00b-f93289c07225</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2199564401-fonte-automotiva-jfa-60a-slim-storm-voltimetro-digital-som-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14e4093b-90d3-49d2-a761-648ae1723f77</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1426,16 +1426,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático  Preto</t>
+          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>466.39</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1454,14 +1454,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438260068-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2a68adac-e8ca-4b51-a00b-f93289c07225</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14e4093b-90d3-49d2-a761-648ae1723f77</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,16 +1471,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+          <t>Carregador Bateria Fonte Automotivo 120a Jfa Storm Bob 120</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>551.1900000000001</v>
+        <v>568.15</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574807970-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2a68adac-e8ca-4b51-a00b-f93289c07225</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173848660-carregador-bateria-fonte-automotivo-120a-jfa-storm-bob-120-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14e4093b-90d3-49d2-a761-648ae1723f77</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,20 +1516,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Resistente A Agua</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>88.52</v>
+        <v>457.29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1544,14 +1544,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8cac07d-040d-40d3-b795-aa7657f74f06</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438296002-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14e4093b-90d3-49d2-a761-648ae1723f77</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,16 +1561,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Bateria</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Resistente A Agua</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>445.19</v>
+        <v>88.52</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1584,19 +1584,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4575430220-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-bateria-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8cac07d-040d-40d3-b795-aa7657f74f06</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3769834364-controle-longa-distancia-jfa-k1200-acqua-resistente-a-agua-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De691cc6e-4af9-47ec-af6a-55e7fe6de958</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,16 +1606,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Storm</t>
+          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>423.99</v>
+        <v>78</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1629,19 +1629,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2778593834-fonte-carregador-de-bateria-jfa-40a-storm-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De8cac07d-040d-40d3-b795-aa7657f74f06</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De691cc6e-4af9-47ec-af6a-55e7fe6de958</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,20 +1651,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Completo Consulte Cores</t>
+          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>78</v>
+        <v>519.39</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1674,19 +1674,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2697021593-controle-longa-distancia-jfa-k600-completo-consulte-cores-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c2f11a1-05af-4e7e-9d0e-8efe13238923</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De691cc6e-4af9-47ec-af6a-55e7fe6de958</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1724,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c2f11a1-05af-4e7e-9d0e-8efe13238923</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3173864516-controle-jfa-k1200-preto-c-verde-longa-distancia-universal-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De691cc6e-4af9-47ec-af6a-55e7fe6de958</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,16 +1741,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Slim Bivolt C/ Voltímetro Ful</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>519.39</v>
+        <v>603.54</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1764,19 +1764,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4750976862-fonte-carregador-jfa-70a-storm-slim-bivolt-c-voltimetro-ful-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c2f11a1-05af-4e7e-9d0e-8efe13238923</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3725128457-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3472a4ca-3cad-48fa-9cca-b35a5fe535c9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1814,14 +1814,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb734553-6b04-47f8-bd38-19cdabdc6f7f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2733301824-fonte-automotiva-carregador-de-bateria-jfa-caixa-bob-200a-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9e669368-69b5-406b-8f92-f7073c08529b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1831,16 +1831,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
+          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>455.79</v>
+        <v>412.9</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1854,19 +1854,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2613428454-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb734553-6b04-47f8-bd38-19cdabdc6f7f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D591b5956-a3f4-4570-9602-9a2471ca25b1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1876,20 +1876,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a Storm Lite  3000w  Medidor</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>412.9</v>
+        <v>847.99</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1904,52 +1904,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4574541892-fonte-carregador-bateria-jfa-60a-storm-lite-3000w-medidor-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da0d9ab57-8f00-43b5-a5d2-a4dd2a714bbd</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>bro e_commerce</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>847.99</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da0d9ab57-8f00-43b5-a5d2-a4dd2a714bbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3644821387-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D591b5956-a3f4-4570-9602-9a2471ca25b1</t>
         </is>
       </c>
     </row>
